--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -8,31 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAF739F-4926-4BEC-A92D-E26CE314E2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC9A555-57F6-4A0B-B0AB-3425FFF618A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
   <si>
     <t>FEATURES</t>
   </si>
   <si>
-    <t>Ascensore.asm, Forno.asm</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -126,12 +134,6 @@
     <t>CashPoint.asm</t>
   </si>
   <si>
-    <t>Cassaforte.asm, Contatore_U_DA_H.asm</t>
-  </si>
-  <si>
-    <t>Certifier_nochoose_noundef.asm, Pillbox_1.asm, TrafficLightv2.asm</t>
-  </si>
-  <si>
     <t>CoffeeVendingMachineNC.asm</t>
   </si>
   <si>
@@ -165,15 +167,9 @@
     <t>Stufa.asm</t>
   </si>
   <si>
-    <t>swapSortOnSeq.asm</t>
-  </si>
-  <si>
     <t>NeedhamSchroeder.asm</t>
   </si>
   <si>
-    <t>main.asm and its imported modules</t>
-  </si>
-  <si>
     <t>with invariants (invariant INVAR .... qui con INVAR - ATGT potrebbe generare test che soddisfano gli inviarinti)</t>
   </si>
   <si>
@@ -181,6 +177,45 @@
   </si>
   <si>
     <t>with agents (agent domain + program)</t>
+  </si>
+  <si>
+    <t>choose - but deterministic (no flaky)</t>
+  </si>
+  <si>
+    <t>COVERED</t>
+  </si>
+  <si>
+    <t>SafeCombination.asm</t>
+  </si>
+  <si>
+    <t>Forno.asm</t>
+  </si>
+  <si>
+    <t>Ascensore.asm</t>
+  </si>
+  <si>
+    <t>Cassaforte.asm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Contatore_U_DA_H.asm</t>
+  </si>
+  <si>
+    <t>Certifier_nochoose_noundef.asm</t>
+  </si>
+  <si>
+    <t>Pillbox_1.asm</t>
+  </si>
+  <si>
+    <t>TrafficLightv2.asm</t>
+  </si>
+  <si>
+    <t>SwapSortOnSeq.asm</t>
+  </si>
+  <si>
+    <t>Integer_train.asm</t>
+  </si>
+  <si>
+    <t>GuessBigNumber.asm + module</t>
   </si>
 </sst>
 </file>
@@ -241,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -257,6 +292,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,386 +618,712 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" customWidth="1"/>
+    <col min="3" max="27" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB3" t="str">
+        <f>IF(COUNTIF(C3:AA3,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="str">
+        <f>IF(COUNTIF(C4:AA4,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="str">
+        <f>IF(COUNTIF(C5:AA5,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>1</v>
+      </c>
+      <c r="X6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" t="str">
+        <f>IF(COUNTIF(C6:AA6,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB7" t="str">
+        <f>IF(COUNTIF(C7:AA7,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" t="str">
+        <f>IF(COUNTIF(C8:AA8,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S9" t="s">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB9" t="str">
+        <f>IF(COUNTIF(C9:AA9,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+      <c r="R10" t="s">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s">
+        <v>1</v>
+      </c>
+      <c r="U10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" t="s">
+        <v>1</v>
+      </c>
+      <c r="X10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB10" t="str">
+        <f>IF(COUNTIF(C10:AA10,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB11" t="str">
+        <f>IF(COUNTIF(C11:AA11,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB12" t="str">
+        <f>IF(COUNTIF(C12:AA12,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="str">
+        <f>IF(COUNTIF(C15:AA15,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" t="str">
+        <f>IF(COUNTIF(C16:AA16,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB17" t="str">
+        <f>IF(COUNTIF(C17:AA17,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="str">
+        <f>IF(COUNTIF(C18:AA18,"X")=0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O21" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB21" t="str">
+        <f>IF(COUNTIF(C21:AA21,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="str">
+        <f>IF(COUNTIF(C22:AA22,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB23" t="str">
+        <f>IF(COUNTIF(C23:AA23,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB24" t="str">
+        <f>IF(COUNTIF(C24:AA24,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X25" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB25" t="str">
+        <f>IF(COUNTIF(C25:AA25,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="X26" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB26" t="str">
+        <f>IF(COUNTIF(C26:AA26,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB29" t="str">
+        <f>IF(COUNTIF(C29:AA29,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB30" t="str">
+        <f>IF(COUNTIF(C30:AA30,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="P31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" t="str">
+        <f>IF(COUNTIF(C31:AA31,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
-        <v>2</v>
-      </c>
-      <c r="K22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" t="s">
-        <v>2</v>
+      <c r="N32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB32" t="str">
+        <f>IF(COUNTIF(C32:AA32,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +1342,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B18 B32 B20:B30">
+  <conditionalFormatting sqref="B3:B18 B20:B31 B33">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -986,7 +1350,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B18 B20:B30">
+  <conditionalFormatting sqref="B3:B18 B20:B31">
     <cfRule type="iconSet" priority="19">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC9A555-57F6-4A0B-B0AB-3425FFF618A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FE73A6-A142-43DE-A146-2EE84CA4FFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
   <si>
     <t>FEATURES</t>
   </si>
@@ -140,12 +140,6 @@
     <t>Dado.asm</t>
   </si>
   <si>
-    <t>Ferryman.asm</t>
-  </si>
-  <si>
-    <t>Lift.asm</t>
-  </si>
-  <si>
     <t>Phd_master_flat2_v1.asm</t>
   </si>
   <si>
@@ -158,18 +152,12 @@
     <t>SiGistica.asm</t>
   </si>
   <si>
-    <t>SIS.asm</t>
-  </si>
-  <si>
     <t>SmartHome.asm</t>
   </si>
   <si>
     <t>Stufa.asm</t>
   </si>
   <si>
-    <t>NeedhamSchroeder.asm</t>
-  </si>
-  <si>
     <t>with invariants (invariant INVAR .... qui con INVAR - ATGT potrebbe generare test che soddisfano gli inviarinti)</t>
   </si>
   <si>
@@ -188,24 +176,12 @@
     <t>SafeCombination.asm</t>
   </si>
   <si>
-    <t>Forno.asm</t>
-  </si>
-  <si>
     <t>Ascensore.asm</t>
   </si>
   <si>
-    <t>Cassaforte.asm</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Contatore_U_DA_H.asm</t>
   </si>
   <si>
-    <t>Certifier_nochoose_noundef.asm</t>
-  </si>
-  <si>
-    <t>Pillbox_1.asm</t>
-  </si>
-  <si>
     <t>TrafficLightv2.asm</t>
   </si>
   <si>
@@ -216,6 +192,18 @@
   </si>
   <si>
     <t>GuessBigNumber.asm + module</t>
+  </si>
+  <si>
+    <t>Quicksort.asm</t>
+  </si>
+  <si>
+    <t>Population.asm</t>
+  </si>
+  <si>
+    <t>LIFT.asm</t>
+  </si>
+  <si>
+    <t>with rule as term</t>
   </si>
 </sst>
 </file>
@@ -276,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -295,6 +283,9 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,20 +609,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB32"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+      <selection activeCell="A30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13" style="2" customWidth="1"/>
-    <col min="3" max="27" width="8" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
+    <col min="3" max="22" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,125 +630,116 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="s">
         <v>1</v>
       </c>
       <c r="R3" t="s">
         <v>1</v>
       </c>
-      <c r="W3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB3" t="str">
-        <f>IF(COUNTIF(C3:AA3,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W3" t="str">
+        <f>IF(COUNTIF(C3:V3,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>1</v>
       </c>
       <c r="G4" t="s">
@@ -772,22 +754,16 @@
       <c r="J4" t="s">
         <v>1</v>
       </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1</v>
-      </c>
       <c r="M4" t="s">
         <v>1</v>
       </c>
+      <c r="N4" t="s">
+        <v>1</v>
+      </c>
       <c r="O4" t="s">
         <v>1</v>
       </c>
-      <c r="R4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="P4" t="s">
         <v>1</v>
       </c>
       <c r="T4" t="s">
@@ -799,99 +775,90 @@
       <c r="V4" t="s">
         <v>1</v>
       </c>
-      <c r="Y4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB4" t="str">
-        <f>IF(COUNTIF(C4:AA4,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W4" t="str">
+        <f>IF(COUNTIF(C4:V4,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB5" t="str">
-        <f>IF(COUNTIF(C5:AA5,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" t="str">
+        <f>IF(COUNTIF(C5:V5,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" t="s">
-        <v>1</v>
-      </c>
-      <c r="W6" t="s">
-        <v>1</v>
-      </c>
-      <c r="X6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB6" t="str">
-        <f>IF(COUNTIF(C6:AA6,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>1</v>
+      </c>
+      <c r="W6" t="str">
+        <f>IF(COUNTIF(C6:V6,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB7" t="str">
-        <f>IF(COUNTIF(C7:AA7,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>1</v>
+      </c>
+      <c r="W7" t="str">
+        <f>IF(COUNTIF(C7:V7,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB8" t="str">
-        <f>IF(COUNTIF(C8:AA8,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" t="str">
+        <f>IF(COUNTIF(C8:V8,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -913,28 +880,19 @@
       <c r="G9" t="s">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>1</v>
-      </c>
       <c r="I9" t="s">
         <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
       </c>
-      <c r="K9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
         <v>1</v>
       </c>
       <c r="N9" t="s">
         <v>1</v>
       </c>
-      <c r="Q9" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="O9" t="s">
         <v>1</v>
       </c>
       <c r="S9" t="s">
@@ -946,24 +904,15 @@
       <c r="U9" t="s">
         <v>1</v>
       </c>
-      <c r="X9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB9" t="str">
-        <f>IF(COUNTIF(C9:AA9,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W9" t="str">
+        <f>IF(COUNTIF(C9:V9,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -979,7 +928,10 @@
       <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>1</v>
       </c>
       <c r="I10" t="s">
@@ -1006,328 +958,322 @@
       <c r="P10" t="s">
         <v>1</v>
       </c>
-      <c r="Q10" t="s">
-        <v>1</v>
-      </c>
-      <c r="R10" t="s">
-        <v>1</v>
-      </c>
       <c r="S10" t="s">
         <v>1</v>
       </c>
       <c r="T10" t="s">
         <v>1</v>
       </c>
-      <c r="U10" t="s">
-        <v>1</v>
-      </c>
-      <c r="V10" t="s">
-        <v>1</v>
-      </c>
-      <c r="X10" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB10" t="str">
-        <f>IF(COUNTIF(C10:AA10,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W10" t="str">
+        <f>IF(COUNTIF(C10:V10,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Y11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB11" t="str">
-        <f>IF(COUNTIF(C11:AA11,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>1</v>
+      </c>
+      <c r="W11" t="str">
+        <f>IF(COUNTIF(C11:V11,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="V12" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB12" t="str">
-        <f>IF(COUNTIF(C12:AA12,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>1</v>
+      </c>
+      <c r="W12" t="str">
+        <f>IF(COUNTIF(C12:V12,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
-      <c r="F15" t="s">
-        <v>1</v>
-      </c>
-      <c r="V15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB15" t="str">
-        <f>IF(COUNTIF(C15:AA15,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>1</v>
+      </c>
+      <c r="W15" t="str">
+        <f>IF(COUNTIF(C15:V15,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AA16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB16" t="str">
-        <f>IF(COUNTIF(C16:AA16,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" ht="45" x14ac:dyDescent="0.25">
+      <c r="V16" t="s">
+        <v>1</v>
+      </c>
+      <c r="W16" t="str">
+        <f>IF(COUNTIF(C16:V16,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="Z17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB17" t="str">
-        <f>IF(COUNTIF(C17:AA17,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="U17" t="s">
+        <v>1</v>
+      </c>
+      <c r="W17" t="str">
+        <f>IF(COUNTIF(C17:V17,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AB18" t="str">
-        <f>IF(COUNTIF(C18:AA18,"X")=0,"No","Yes")</f>
+      <c r="W18" t="str">
+        <f>IF(COUNTIF(C18:V18,"X")=0,"No","Yes")</f>
         <v>No</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="W19" t="str">
+        <f>IF(COUNTIF(C19:V19,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB21" t="str">
-        <f>IF(COUNTIF(C21:AA21,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1</v>
-      </c>
-      <c r="L22" t="s">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>1</v>
-      </c>
-      <c r="S22" t="s">
-        <v>1</v>
-      </c>
-      <c r="U22" t="s">
-        <v>1</v>
-      </c>
-      <c r="X22" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB22" t="str">
-        <f>IF(COUNTIF(C22:AA22,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" ht="30" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" t="str">
+        <f>IF(COUNTIF(C22:V22,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F23" t="s">
-        <v>1</v>
-      </c>
-      <c r="W23" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB23" t="str">
-        <f>IF(COUNTIF(C23:AA23,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1</v>
+      </c>
+      <c r="W23" t="str">
+        <f>IF(COUNTIF(C23:V23,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
       </c>
       <c r="S24" t="s">
         <v>1</v>
       </c>
-      <c r="AB24" t="str">
-        <f>IF(COUNTIF(C24:AA24,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="W24" t="str">
+        <f>IF(COUNTIF(C24:V24,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="W25" t="str">
+        <f>IF(COUNTIF(C25:V25,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X25" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="str">
-        <f>IF(COUNTIF(C25:AA25,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X26" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB26" t="str">
-        <f>IF(COUNTIF(C26:AA26,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1</v>
+      </c>
+      <c r="W26" t="str">
+        <f>IF(COUNTIF(C26:V26,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="W27" t="str">
+        <f>IF(COUNTIF(C27:V27,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="U29" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB29" t="str">
-        <f>IF(COUNTIF(C29:AA29,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1</v>
+      </c>
+      <c r="W30" t="str">
+        <f>IF(COUNTIF(C30:V30,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA30" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB30" t="str">
-        <f>IF(COUNTIF(C30:AA30,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="V31" t="s">
+        <v>1</v>
+      </c>
+      <c r="W31" t="str">
+        <f>IF(COUNTIF(C31:V31,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P31" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB31" t="str">
-        <f>IF(COUNTIF(C31:AA31,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="K32" t="s">
+        <v>1</v>
+      </c>
+      <c r="W32" t="str">
+        <f>IF(COUNTIF(C32:V32,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N32" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB32" t="str">
-        <f>IF(COUNTIF(C32:AA32,"X")=0,"No","Yes")</f>
+      <c r="L33" t="s">
+        <v>1</v>
+      </c>
+      <c r="S33" t="s">
+        <v>1</v>
+      </c>
+      <c r="W33" t="str">
+        <f>IF(COUNTIF(C33:V33,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A20">
+  <conditionalFormatting sqref="A21">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1342,7 +1288,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B18 B20:B31 B33">
+  <conditionalFormatting sqref="B3:B19 B34 B21:B32">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1350,8 +1296,8 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B18 B20:B31">
-    <cfRule type="iconSet" priority="19">
+  <conditionalFormatting sqref="B3:B19 B21:B32">
+    <cfRule type="iconSet" priority="24">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01FE73A6-A142-43DE-A146-2EE84CA4FFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20596DD3-4954-45AA-8796-93A5A4BE6CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
   <si>
     <t>FEATURES</t>
   </si>
@@ -264,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -283,9 +283,6 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -612,7 +609,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD30"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -725,7 +722,7 @@
         <v>1</v>
       </c>
       <c r="W3" t="str">
-        <f>IF(COUNTIF(C3:V3,"X")=0,"No","Yes")</f>
+        <f t="shared" ref="W3:W12" si="0">IF(COUNTIF(C3:V3,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -776,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="W4" t="str">
-        <f>IF(COUNTIF(C4:V4,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -791,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="W5" t="str">
-        <f>IF(COUNTIF(C5:V5,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -821,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="W6" t="str">
-        <f>IF(COUNTIF(C6:V6,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -836,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="W7" t="str">
-        <f>IF(COUNTIF(C7:V7,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -854,7 +851,7 @@
         <v>1</v>
       </c>
       <c r="W8" t="str">
-        <f>IF(COUNTIF(C8:V8,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -908,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="W9" t="str">
-        <f>IF(COUNTIF(C9:V9,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -965,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="W10" t="str">
-        <f>IF(COUNTIF(C10:V10,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -980,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="W11" t="str">
-        <f>IF(COUNTIF(C11:V11,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -995,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="W12" t="str">
-        <f>IF(COUNTIF(C12:V12,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1066,7 +1063,7 @@
       </c>
     </row>
     <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
       <c r="J19" t="s">
@@ -1097,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="W22" t="str">
-        <f>IF(COUNTIF(C22:V22,"X")=0,"No","Yes")</f>
+        <f t="shared" ref="W22:W27" si="1">IF(COUNTIF(C22:V22,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1136,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="W23" t="str">
-        <f>IF(COUNTIF(C23:V23,"X")=0,"No","Yes")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1157,7 +1154,7 @@
         <v>1</v>
       </c>
       <c r="W24" t="str">
-        <f>IF(COUNTIF(C24:V24,"X")=0,"No","Yes")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1165,11 +1162,14 @@
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="N25" t="s">
         <v>1</v>
       </c>
       <c r="W25" t="str">
-        <f>IF(COUNTIF(C25:V25,"X")=0,"No","Yes")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
         <v>1</v>
       </c>
       <c r="W26" t="str">
-        <f>IF(COUNTIF(C26:V26,"X")=0,"No","Yes")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
         <v>1</v>
       </c>
       <c r="W27" t="str">
-        <f>IF(COUNTIF(C27:V27,"X")=0,"No","Yes")</f>
+        <f t="shared" si="1"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B19 B34 B21:B32">
+  <conditionalFormatting sqref="B3:B19 B21:B32 B34">
     <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"No"</formula>
     </cfRule>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20596DD3-4954-45AA-8796-93A5A4BE6CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6294B72D-4601-416E-85B6-8E77949DE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="57">
   <si>
     <t>FEATURES</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>with rule as term</t>
+  </si>
+  <si>
+    <t>SHOULD ATGT BE ABLE TO GENERATE TESTS?</t>
   </si>
 </sst>
 </file>
@@ -289,7 +292,117 @@
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -606,10 +719,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:W35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,15 +1385,100 @@
         <v>Yes</v>
       </c>
     </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" t="str">
+        <f>IF(COUNTIFS(C3:C33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="D35" t="str">
+        <f>IF(COUNTIFS(D3:D33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="E35" t="str">
+        <f>IF(COUNTIFS(E3:E33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F35" t="str">
+        <f>IF(COUNTIFS(F3:F33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="G35" t="str">
+        <f>IF(COUNTIFS(G3:G33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="H35" t="str">
+        <f>IF(COUNTIFS(H3:H33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="I35" t="str">
+        <f>IF(COUNTIFS(I3:I33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="J35" t="str">
+        <f>IF(COUNTIFS(J3:J33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="K35" t="str">
+        <f>IF(COUNTIFS(K3:K33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="L35" t="str">
+        <f>IF(COUNTIFS(L3:L33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="M35" t="str">
+        <f>IF(COUNTIFS(M3:M33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="N35" t="str">
+        <f>IF(COUNTIFS(N3:N33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="O35" t="str">
+        <f>IF(COUNTIFS(O3:O33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P35" t="str">
+        <f>IF(COUNTIFS(P3:P33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="Q35" t="str">
+        <f>IF(COUNTIFS(Q3:Q33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="R35" t="str">
+        <f>IF(COUNTIFS(R3:R33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="S35" t="str">
+        <f>IF(COUNTIFS(S3:S33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="T35" t="str">
+        <f>IF(COUNTIFS(T3:T33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="U35" t="str">
+        <f>IF(COUNTIFS(U3:U33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="V35" t="str">
+        <f>IF(COUNTIFS(V3:V33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="iconSet" priority="3">
+    <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1289,15 +1487,15 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B19 B21:B32 B34">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B19 B21:B32">
-    <cfRule type="iconSet" priority="24">
+    <cfRule type="iconSet" priority="26">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -1305,6 +1503,14 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C35:V35">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6294B72D-4601-416E-85B6-8E77949DE7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9BB8DF-9239-4902-B7CE-11B65119E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
   <si>
     <t>FEATURES</t>
   </si>
@@ -207,6 +207,27 @@
   </si>
   <si>
     <t>SHOULD ATGT BE ABLE TO GENERATE TESTS?</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Failing invariant</t>
+  </si>
+  <si>
+    <t>use keyword</t>
+  </si>
+  <si>
+    <t>Function isUndef is not declared</t>
+  </si>
+  <si>
+    <t>use of extend</t>
+  </si>
+  <si>
+    <t>operator next not supported in NUSMV - to flatten??</t>
+  </si>
+  <si>
+    <t>$a already created with type UffLog</t>
   </si>
 </sst>
 </file>
@@ -292,7 +313,7 @@
     <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -310,96 +331,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -719,17 +650,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="22" width="6.42578125" customWidth="1"/>
+    <col min="3" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="18" width="6.42578125" customWidth="1"/>
+    <col min="19" max="19" width="7" customWidth="1"/>
+    <col min="20" max="22" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -1170,6 +1111,9 @@
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="W18" t="str">
         <f>IF(COUNTIF(C18:V18,"X")=0,"No","Yes")</f>
         <v>No</v>
@@ -1178,6 +1122,9 @@
     <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="J19" t="s">
         <v>1</v>
@@ -1308,9 +1255,6 @@
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="S27" t="s">
         <v>1</v>
       </c>
@@ -1470,12 +1414,74 @@
         <v>No</v>
       </c>
     </row>
+    <row r="36" spans="1:23" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="C36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
     <cfRule type="iconSet" priority="5">
@@ -1486,15 +1492,15 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B19 B21:B32 B34">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+  <conditionalFormatting sqref="B21:B32 B34 B3:B19">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B19 B21:B32">
+  <conditionalFormatting sqref="B21:B32 B3:B19">
     <cfRule type="iconSet" priority="26">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -1504,11 +1510,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:V35">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AgHome\progettidaSVNGIT\asmeta\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9BB8DF-9239-4902-B7CE-11B65119E514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE16B94D-5F7A-4C50-9D7E-4757E6C4E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="67">
   <si>
     <t>FEATURES</t>
   </si>
@@ -228,6 +226,15 @@
   </si>
   <si>
     <t>$a already created with type UffLog</t>
+  </si>
+  <si>
+    <t>change kword</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -310,8 +317,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -650,30 +657,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="18" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="6.3984375" customWidth="1"/>
+    <col min="6" max="7" width="8.73046875" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" customWidth="1"/>
+    <col min="9" max="11" width="6.3984375" customWidth="1"/>
+    <col min="12" max="12" width="7.3984375" customWidth="1"/>
+    <col min="13" max="13" width="6.3984375" customWidth="1"/>
+    <col min="14" max="14" width="9.73046875" customWidth="1"/>
+    <col min="15" max="15" width="12.73046875" customWidth="1"/>
+    <col min="16" max="18" width="6.3984375" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="22" width="6.42578125" customWidth="1"/>
+    <col min="20" max="22" width="6.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -744,13 +751,13 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -780,7 +787,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -831,7 +838,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -846,7 +853,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -876,7 +883,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -891,7 +898,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -909,7 +916,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -963,7 +970,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +1027,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1035,7 +1042,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1050,13 +1057,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -1077,7 +1084,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1092,7 +1099,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1107,7 +1114,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1126,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1134,13 +1141,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1197,7 +1204,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1218,7 +1225,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -1233,7 +1240,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1251,10 +1258,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="S27" t="s">
         <v>1</v>
       </c>
@@ -1263,13 +1273,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1284,7 +1294,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>40</v>
       </c>
@@ -1311,7 +1321,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="33" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>28</v>
       </c>
@@ -1329,7 +1339,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>56</v>
       </c>
@@ -1399,7 +1409,7 @@
       </c>
       <c r="S35" t="str">
         <f>IF(COUNTIFS(S3:S33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="T35" t="str">
         <f>IF(COUNTIFS(T3:T33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
@@ -1414,7 +1424,7 @@
         <v>No</v>
       </c>
     </row>
-    <row r="36" spans="1:23" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="C36" s="2" t="s">
         <v>57</v>
       </c>
@@ -1474,6 +1484,17 @@
       </c>
       <c r="V36" s="2" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="F37" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H37" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AgHome\progettidaSVNGIT\asmeta\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE16B94D-5F7A-4C50-9D7E-4757E6C4E272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197763E0-CE5A-4F1A-8303-96B133E8D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
   <si>
     <t>FEATURES</t>
   </si>
@@ -93,9 +93,6 @@
     <t>with a condition like a password or a pin difficult to guess (with nusmv) like safe,  open with a combination (sequence of integers)</t>
   </si>
   <si>
-    <t>with boolean complex conditions (at least ???)</t>
-  </si>
-  <si>
     <t>RULE</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Phd_master_flat2_v1.asm</t>
   </si>
   <si>
-    <t>RailroadGate.asm</t>
-  </si>
-  <si>
     <t>RegistroDiCassav4.asm</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>ok</t>
   </si>
   <si>
-    <t>Failing invariant</t>
-  </si>
-  <si>
     <t>use keyword</t>
   </si>
   <si>
@@ -235,6 +226,21 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Tcas.asm</t>
+  </si>
+  <si>
+    <t>with boolean complex conditions</t>
+  </si>
+  <si>
+    <t>Ferryman.asm</t>
+  </si>
+  <si>
+    <t>class tgtlib.definitions.expression.FunctionTermnot supported</t>
+  </si>
+  <si>
+    <t>ESEMPIO ERRORE NUOVO: class tgtlib.definitions.expression.IdExpression ATGT failed to generate a test suite that can be validated java.lang.RuntimeException: var currentLock has no bool value but1</t>
   </si>
 </sst>
 </file>
@@ -317,8 +323,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -657,30 +663,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="6.3984375" customWidth="1"/>
-    <col min="6" max="7" width="8.73046875" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" customWidth="1"/>
-    <col min="9" max="11" width="6.3984375" customWidth="1"/>
-    <col min="12" max="12" width="7.3984375" customWidth="1"/>
-    <col min="13" max="13" width="6.3984375" customWidth="1"/>
-    <col min="14" max="14" width="9.73046875" customWidth="1"/>
-    <col min="15" max="15" width="12.73046875" customWidth="1"/>
-    <col min="16" max="18" width="6.3984375" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="18" width="6.42578125" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="22" width="6.3984375" customWidth="1"/>
+    <col min="20" max="23" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,76 +695,79 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="W1" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -782,12 +792,12 @@
       <c r="R3" t="s">
         <v>1</v>
       </c>
-      <c r="W3" t="str">
-        <f t="shared" ref="W3:W12" si="0">IF(COUNTIF(C3:V3,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X3" t="str">
+        <f>IF(COUNTIF(C3:W3,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -833,12 +843,12 @@
       <c r="V4" t="s">
         <v>1</v>
       </c>
-      <c r="W4" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X4" t="str">
+        <f t="shared" ref="X4:X33" si="0">IF(COUNTIF(C4:W4,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -848,12 +858,12 @@
       <c r="V5" t="s">
         <v>1</v>
       </c>
-      <c r="W5" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X5" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -878,12 +888,12 @@
       <c r="T6" t="s">
         <v>1</v>
       </c>
-      <c r="W6" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X6" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -893,12 +903,12 @@
       <c r="P7" t="s">
         <v>1</v>
       </c>
-      <c r="W7" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X7" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -911,12 +921,12 @@
       <c r="V8" t="s">
         <v>1</v>
       </c>
-      <c r="W8" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X8" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -965,12 +975,15 @@
       <c r="V9" t="s">
         <v>1</v>
       </c>
-      <c r="W9" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="W9" t="s">
+        <v>1</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1022,12 +1035,12 @@
       <c r="T10" t="s">
         <v>1</v>
       </c>
-      <c r="W10" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X10" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1037,12 +1050,12 @@
       <c r="T11" t="s">
         <v>1</v>
       </c>
-      <c r="W11" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X11" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1052,20 +1065,20 @@
       <c r="P12" t="s">
         <v>1</v>
       </c>
-      <c r="W12" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X12" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -1079,12 +1092,12 @@
       <c r="P15" t="s">
         <v>1</v>
       </c>
-      <c r="W15" t="str">
-        <f>IF(COUNTIF(C15:V15,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X15" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1094,12 +1107,12 @@
       <c r="V16" t="s">
         <v>1</v>
       </c>
-      <c r="W16" t="str">
-        <f>IF(COUNTIF(C16:V16,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X16" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1109,206 +1122,209 @@
       <c r="U17" t="s">
         <v>1</v>
       </c>
-      <c r="W17" t="str">
-        <f>IF(COUNTIF(C17:V17,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X17" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="W18" t="s">
+        <v>1</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="2" t="s">
+    </row>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1</v>
+      </c>
+      <c r="V23" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1</v>
+      </c>
+      <c r="S24" t="s">
+        <v>1</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W18" t="str">
-        <f>IF(COUNTIF(C18:V18,"X")=0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J19" t="s">
-        <v>1</v>
-      </c>
-      <c r="W19" t="str">
-        <f>IF(COUNTIF(C19:V19,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T22" t="s">
-        <v>1</v>
-      </c>
-      <c r="W22" t="str">
-        <f t="shared" ref="W22:W27" si="1">IF(COUNTIF(C22:V22,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
-        <v>1</v>
-      </c>
-      <c r="S23" t="s">
-        <v>1</v>
-      </c>
-      <c r="T23" t="s">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
-        <v>1</v>
-      </c>
-      <c r="W23" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>1</v>
-      </c>
-      <c r="S24" t="s">
-        <v>1</v>
-      </c>
-      <c r="W24" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" t="s">
-        <v>1</v>
-      </c>
-      <c r="W25" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="2" t="s">
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" t="s">
+        <v>1</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="R26" t="s">
-        <v>1</v>
-      </c>
-      <c r="W26" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="2" t="s">
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S27" t="s">
+        <v>1</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s">
+        <v>1</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" t="s">
-        <v>1</v>
-      </c>
-      <c r="W27" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1</v>
-      </c>
-      <c r="T30" t="s">
-        <v>1</v>
-      </c>
-      <c r="W30" t="str">
-        <f>IF(COUNTIF(C30:V30,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="V31" t="s">
         <v>1</v>
       </c>
-      <c r="W31" t="str">
-        <f>IF(COUNTIF(C31:V31,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X31" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>9</v>
@@ -1316,17 +1332,17 @@
       <c r="K32" t="s">
         <v>1</v>
       </c>
-      <c r="W32" t="str">
-        <f>IF(COUNTIF(C32:V32,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="X32" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L33" t="s">
         <v>1</v>
@@ -1334,14 +1350,14 @@
       <c r="S33" t="s">
         <v>1</v>
       </c>
-      <c r="W33" t="str">
-        <f>IF(COUNTIF(C33:V33,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="X33" t="str">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" t="str">
         <f>IF(COUNTIFS(C3:C33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
@@ -1423,78 +1439,88 @@
         <f>IF(COUNTIFS(V3:V33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
         <v>No</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" s="2" customFormat="1" ht="57" x14ac:dyDescent="0.45">
+      <c r="W35" t="str">
+        <f>IF(COUNTIFS(W3:W33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="O36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="2" t="s">
+      <c r="P36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="F37" t="s">
-        <v>64</v>
-      </c>
-      <c r="G37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H37" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1513,7 +1539,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B32 B34 B3:B19">
+  <conditionalFormatting sqref="B3:B19 B21:B32 B34">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1530,7 +1556,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:V35">
+  <conditionalFormatting sqref="C35:W35">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197763E0-CE5A-4F1A-8303-96B133E8D30A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1621A870-395D-46D5-8194-65961CACDF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="68">
   <si>
     <t>FEATURES</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Function isUndef is not declared</t>
   </si>
   <si>
-    <t>use of extend</t>
-  </si>
-  <si>
     <t>operator next not supported in NUSMV - to flatten??</t>
   </si>
   <si>
@@ -234,13 +231,13 @@
     <t>with boolean complex conditions</t>
   </si>
   <si>
-    <t>Ferryman.asm</t>
-  </si>
-  <si>
-    <t>class tgtlib.definitions.expression.FunctionTermnot supported</t>
-  </si>
-  <si>
-    <t>ESEMPIO ERRORE NUOVO: class tgtlib.definitions.expression.IdExpression ATGT failed to generate a test suite that can be validated java.lang.RuntimeException: var currentLock has no bool value but1</t>
+    <t>LGS_3L.asm</t>
+  </si>
+  <si>
+    <t>gearsExtended already created with type LandingSet</t>
+  </si>
+  <si>
+    <t>var currentLock has no bool value but1</t>
   </si>
 </sst>
 </file>
@@ -665,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,13 +675,15 @@
     <col min="7" max="7" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
     <col min="13" max="13" width="6.42578125" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="12.7109375" customWidth="1"/>
     <col min="16" max="18" width="6.42578125" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="23" width="6.42578125" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
+    <col min="22" max="23" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
@@ -722,7 +721,7 @@
         <v>33</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>34</v>
@@ -755,7 +754,7 @@
         <v>49</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>42</v>
@@ -844,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="X4" t="str">
-        <f t="shared" ref="X4:X33" si="0">IF(COUNTIF(C4:W4,"X")=0,"No","Yes")</f>
+        <f>IF(COUNTIF(C4:W4,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -859,7 +858,7 @@
         <v>1</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C5:W5,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -889,7 +888,7 @@
         <v>1</v>
       </c>
       <c r="X6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C6:W6,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -904,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="X7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C7:W7,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -922,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C8:W8,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -979,7 +978,7 @@
         <v>1</v>
       </c>
       <c r="X9" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C9:W9,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1036,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="X10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C10:W10,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1051,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C11:W11,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1066,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="X12" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C12:W12,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1093,7 +1092,7 @@
         <v>1</v>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C15:W15,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1108,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C16:W16,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1123,13 +1122,13 @@
         <v>1</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C17:W17,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
@@ -1138,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C18:W18,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1153,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="X19" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C19:W19,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1177,7 +1176,7 @@
         <v>1</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C22:W22,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1216,7 +1215,7 @@
         <v>1</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C23:W23,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1237,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C24:W24,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1252,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C25:W25,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1270,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C26:W26,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1279,13 +1278,13 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S27" t="s">
         <v>1</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C27:W27,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1306,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="X30" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C30:W30,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1318,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C31:W31,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1333,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="X32" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C32:W32,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1351,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(COUNTIF(C33:W33,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -1444,7 +1443,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>56</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>55</v>
@@ -1473,13 +1472,13 @@
         <v>55</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>55</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>57</v>
@@ -1494,7 +1493,7 @@
         <v>55</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>55</v>
@@ -1509,18 +1508,18 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>68</v>
-      </c>
+    <row r="37" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="F37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>62</v>
+      <c r="U37" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AgHome\progettidaSVNGIT\asmeta\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1621A870-395D-46D5-8194-65961CACDF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F140B8-9CE2-4693-ABC1-0E81CFF0E1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="70">
   <si>
     <t>FEATURES</t>
   </si>
@@ -234,10 +234,16 @@
     <t>LGS_3L.asm</t>
   </si>
   <si>
-    <t>gearsExtended already created with type LandingSet</t>
-  </si>
-  <si>
     <t>var currentLock has no bool value but1</t>
+  </si>
+  <si>
+    <t>renamed derived</t>
+  </si>
+  <si>
+    <t>with agents, won't work</t>
+  </si>
+  <si>
+    <t>not fixable</t>
   </si>
 </sst>
 </file>
@@ -320,8 +326,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -662,31 +668,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
-    <col min="3" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="18" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.1328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.1328125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="6.3984375" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" customWidth="1"/>
+    <col min="9" max="11" width="6.3984375" customWidth="1"/>
+    <col min="12" max="12" width="9.265625" customWidth="1"/>
+    <col min="13" max="13" width="6.3984375" customWidth="1"/>
+    <col min="14" max="14" width="9.73046875" customWidth="1"/>
+    <col min="15" max="15" width="12.73046875" customWidth="1"/>
+    <col min="16" max="18" width="6.3984375" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" customWidth="1"/>
+    <col min="20" max="20" width="6.3984375" customWidth="1"/>
     <col min="21" max="21" width="9" customWidth="1"/>
-    <col min="22" max="23" width="6.42578125" customWidth="1"/>
+    <col min="22" max="23" width="6.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -760,13 +766,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -792,11 +798,11 @@
         <v>1</v>
       </c>
       <c r="X3" t="str">
-        <f>IF(COUNTIF(C3:W3,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="X3:X12" si="0">IF(COUNTIF(C3:W3,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -843,11 +849,11 @@
         <v>1</v>
       </c>
       <c r="X4" t="str">
-        <f>IF(COUNTIF(C4:W4,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -858,11 +864,11 @@
         <v>1</v>
       </c>
       <c r="X5" t="str">
-        <f>IF(COUNTIF(C5:W5,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -888,11 +894,11 @@
         <v>1</v>
       </c>
       <c r="X6" t="str">
-        <f>IF(COUNTIF(C6:W6,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -903,11 +909,11 @@
         <v>1</v>
       </c>
       <c r="X7" t="str">
-        <f>IF(COUNTIF(C7:W7,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -921,11 +927,11 @@
         <v>1</v>
       </c>
       <c r="X8" t="str">
-        <f>IF(COUNTIF(C8:W8,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -978,11 +984,11 @@
         <v>1</v>
       </c>
       <c r="X9" t="str">
-        <f>IF(COUNTIF(C9:W9,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1035,11 +1041,11 @@
         <v>1</v>
       </c>
       <c r="X10" t="str">
-        <f>IF(COUNTIF(C10:W10,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1050,11 +1056,11 @@
         <v>1</v>
       </c>
       <c r="X11" t="str">
-        <f>IF(COUNTIF(C11:W11,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1065,17 +1071,17 @@
         <v>1</v>
       </c>
       <c r="X12" t="str">
-        <f>IF(COUNTIF(C12:W12,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="4" t="s">
         <v>64</v>
       </c>
@@ -1141,7 +1147,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1156,13 +1162,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1176,11 +1182,11 @@
         <v>1</v>
       </c>
       <c r="X22" t="str">
-        <f>IF(COUNTIF(C22:W22,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="X22:X27" si="1">IF(COUNTIF(C22:W22,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1215,11 +1221,11 @@
         <v>1</v>
       </c>
       <c r="X23" t="str">
-        <f>IF(COUNTIF(C23:W23,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1236,11 +1242,11 @@
         <v>1</v>
       </c>
       <c r="X24" t="str">
-        <f>IF(COUNTIF(C24:W24,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -1251,11 +1257,11 @@
         <v>1</v>
       </c>
       <c r="X25" t="str">
-        <f>IF(COUNTIF(C25:W25,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1269,11 +1275,11 @@
         <v>1</v>
       </c>
       <c r="X26" t="str">
-        <f>IF(COUNTIF(C26:W26,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1284,17 +1290,17 @@
         <v>1</v>
       </c>
       <c r="X27" t="str">
-        <f>IF(COUNTIF(C27:W27,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
@@ -1309,7 +1315,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
@@ -1321,7 +1327,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -1336,7 +1342,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -1354,7 +1360,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>54</v>
       </c>
@@ -1406,9 +1412,8 @@
         <f>IF(COUNTIFS(N3:N33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="O35" t="str">
-        <f>IF(COUNTIFS(O3:O33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
+      <c r="O35" t="s">
+        <v>10</v>
       </c>
       <c r="P35" t="str">
         <f>IF(COUNTIFS(P3:P33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
@@ -1443,7 +1448,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
@@ -1472,7 +1477,7 @@
         <v>55</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>55</v>
@@ -1499,7 +1504,7 @@
         <v>55</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>55</v>
@@ -1508,7 +1513,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
       <c r="F37" s="2" t="s">
         <v>60</v>
       </c>
@@ -1518,8 +1523,17 @@
       <c r="H37" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="L37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="U37" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AgHome\progettidaSVNGIT\asmeta\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F140B8-9CE2-4693-ABC1-0E81CFF0E1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6377E07-62C9-4E7F-BCB6-A8D1F519A3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
   <si>
     <t>FEATURES</t>
   </si>
@@ -216,15 +216,9 @@
     <t>$a already created with type UffLog</t>
   </si>
   <si>
-    <t>change kword</t>
-  </si>
-  <si>
     <t>fixed</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Tcas.asm</t>
   </si>
   <si>
@@ -244,6 +238,9 @@
   </si>
   <si>
     <t>not fixable</t>
+  </si>
+  <si>
+    <t>changed kword</t>
   </si>
 </sst>
 </file>
@@ -326,8 +323,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Migliaia" xfId="1" builtinId="3"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -668,31 +665,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.1328125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.1328125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="6.3984375" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
-    <col min="7" max="7" width="8.73046875" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" customWidth="1"/>
-    <col min="9" max="11" width="6.3984375" customWidth="1"/>
-    <col min="12" max="12" width="9.265625" customWidth="1"/>
-    <col min="13" max="13" width="6.3984375" customWidth="1"/>
-    <col min="14" max="14" width="9.73046875" customWidth="1"/>
-    <col min="15" max="15" width="12.73046875" customWidth="1"/>
-    <col min="16" max="18" width="6.3984375" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="18" width="6.42578125" customWidth="1"/>
     <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="6.3984375" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" customWidth="1"/>
     <col min="21" max="21" width="9" customWidth="1"/>
-    <col min="22" max="23" width="6.3984375" customWidth="1"/>
+    <col min="22" max="23" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +724,7 @@
         <v>33</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>34</v>
@@ -760,19 +757,19 @@
         <v>49</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -802,7 +799,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -853,7 +850,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -868,7 +865,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -898,7 +895,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -913,7 +910,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -931,7 +928,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -988,7 +985,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1045,7 +1042,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1075,13 +1072,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -1117,7 +1114,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -1132,9 +1129,9 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
@@ -1147,7 +1144,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
@@ -1162,13 +1159,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1186,7 +1183,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1225,7 +1222,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>28</v>
       </c>
@@ -1246,7 +1243,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>23</v>
       </c>
@@ -1279,12 +1276,12 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="S27" t="s">
         <v>1</v>
@@ -1294,16 +1291,19 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="O30" t="s">
         <v>1</v>
       </c>
@@ -1315,10 +1315,13 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="V31" t="s">
         <v>1</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>38</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>27</v>
       </c>
@@ -1360,7 +1363,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>54</v>
       </c>
@@ -1412,8 +1415,9 @@
         <f>IF(COUNTIFS(N3:N33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="O35" t="s">
-        <v>10</v>
+      <c r="O35" t="str">
+        <f>IF(COUNTIFS(O3:O33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
       </c>
       <c r="P35" t="str">
         <f>IF(COUNTIFS(P3:P33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
@@ -1448,7 +1452,7 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="36" spans="1:24" s="2" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="C36" s="2" t="s">
         <v>55</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>55</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>55</v>
@@ -1513,27 +1517,27 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:24" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:24" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="F37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="L37" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="U37" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1556,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B19 B21:B32 B34">
+  <conditionalFormatting sqref="B3:B19 B21:B30 B34 B32">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1560,7 +1564,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B32 B3:B19">
+  <conditionalFormatting sqref="B21:B30 B3:B19 B32">
     <cfRule type="iconSet" priority="26">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6377E07-62C9-4E7F-BCB6-A8D1F519A3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E330B418-0DB1-4659-A99E-C5A1F9D3DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-50" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="58">
   <si>
     <t>FEATURES</t>
   </si>
@@ -108,12 +108,6 @@
     <t>let</t>
   </si>
   <si>
-    <t>extend</t>
-  </si>
-  <si>
-    <t>with an asm that imports another module</t>
-  </si>
-  <si>
     <t>STRUCTURE</t>
   </si>
   <si>
@@ -123,33 +117,12 @@
     <t>choose (it can be flaky) with internal non determinism</t>
   </si>
   <si>
-    <t>ATM3v2.asm</t>
-  </si>
-  <si>
     <t>CashPoint.asm</t>
   </si>
   <si>
-    <t>CoffeeVendingMachineNC.asm</t>
-  </si>
-  <si>
-    <t>Dado.asm</t>
-  </si>
-  <si>
-    <t>Phd_master_flat2_v1.asm</t>
-  </si>
-  <si>
-    <t>RegistroDiCassav4.asm</t>
-  </si>
-  <si>
     <t>SiGistica.asm</t>
   </si>
   <si>
-    <t>SmartHome.asm</t>
-  </si>
-  <si>
-    <t>Stufa.asm</t>
-  </si>
-  <si>
     <t>with invariants (invariant INVAR .... qui con INVAR - ATGT potrebbe generare test che soddisfano gli inviarinti)</t>
   </si>
   <si>
@@ -168,36 +141,6 @@
     <t>SafeCombination.asm</t>
   </si>
   <si>
-    <t>Ascensore.asm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Contatore_U_DA_H.asm</t>
-  </si>
-  <si>
-    <t>TrafficLightv2.asm</t>
-  </si>
-  <si>
-    <t>SwapSortOnSeq.asm</t>
-  </si>
-  <si>
-    <t>Integer_train.asm</t>
-  </si>
-  <si>
-    <t>GuessBigNumber.asm + module</t>
-  </si>
-  <si>
-    <t>Quicksort.asm</t>
-  </si>
-  <si>
-    <t>Population.asm</t>
-  </si>
-  <si>
-    <t>LIFT.asm</t>
-  </si>
-  <si>
-    <t>with rule as term</t>
-  </si>
-  <si>
     <t>SHOULD ATGT BE ABLE TO GENERATE TESTS?</t>
   </si>
   <si>
@@ -207,9 +150,6 @@
     <t>use keyword</t>
   </si>
   <si>
-    <t>Function isUndef is not declared</t>
-  </si>
-  <si>
     <t>operator next not supported in NUSMV - to flatten??</t>
   </si>
   <si>
@@ -225,22 +165,49 @@
     <t>with boolean complex conditions</t>
   </si>
   <si>
-    <t>LGS_3L.asm</t>
-  </si>
-  <si>
     <t>var currentLock has no bool value but1</t>
   </si>
   <si>
     <t>renamed derived</t>
   </si>
   <si>
-    <t>with agents, won't work</t>
-  </si>
-  <si>
     <t>not fixable</t>
   </si>
   <si>
     <t>changed kword</t>
+  </si>
+  <si>
+    <t>GuessBigNumber.asm</t>
+  </si>
+  <si>
+    <t>Lift.asm</t>
+  </si>
+  <si>
+    <t>ATM.asm</t>
+  </si>
+  <si>
+    <t>Counter.asm</t>
+  </si>
+  <si>
+    <t>CoffeeVendingMachine.asm</t>
+  </si>
+  <si>
+    <t>DiceGame.asm</t>
+  </si>
+  <si>
+    <t>PhdMaster.asm</t>
+  </si>
+  <si>
+    <t>CashRegister.asm</t>
+  </si>
+  <si>
+    <t>Stove.asm</t>
+  </si>
+  <si>
+    <t>IntegerTrain.asm</t>
+  </si>
+  <si>
+    <t>LadingGearSystem.asm</t>
   </si>
 </sst>
 </file>
@@ -663,33 +630,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
     <col min="3" max="5" width="6.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="11" width="6.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="6.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="18" width="6.42578125" customWidth="1"/>
-    <col min="19" max="19" width="7" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9" customWidth="1"/>
-    <col min="22" max="23" width="6.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="14" width="6.42578125" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="16" max="17" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,79 +660,61 @@
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -782,24 +727,15 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1</v>
-      </c>
-      <c r="X3" t="str">
-        <f t="shared" ref="X3:X12" si="0">IF(COUNTIF(C3:W3,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" t="str">
+        <f>IF(COUNTIF(C3:Q3,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -818,10 +754,10 @@
       <c r="H4" t="s">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
         <v>1</v>
       </c>
       <c r="M4" t="s">
@@ -836,36 +772,27 @@
       <c r="P4" t="s">
         <v>1</v>
       </c>
-      <c r="T4" t="s">
-        <v>1</v>
-      </c>
-      <c r="U4" t="s">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>1</v>
-      </c>
-      <c r="X4" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" t="str">
+        <f>IF(COUNTIF(C4:Q4,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V5" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" t="str">
+        <f>IF(COUNTIF(C5:Q5,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -875,60 +802,48 @@
       <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>1</v>
-      </c>
-      <c r="R6" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>1</v>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1</v>
+      </c>
+      <c r="R6" t="str">
+        <f>IF(COUNTIF(C6:Q6,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P7" t="s">
-        <v>1</v>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" t="str">
+        <f>IF(COUNTIF(C7:Q7,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M8" t="s">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1</v>
-      </c>
-      <c r="X8" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" t="str">
+        <f>IF(COUNTIF(C8:Q8,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -947,10 +862,7 @@
       <c r="F9" t="s">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="H9" t="s">
         <v>1</v>
       </c>
       <c r="J9" t="s">
@@ -965,27 +877,18 @@
       <c r="O9" t="s">
         <v>1</v>
       </c>
-      <c r="S9" t="s">
-        <v>1</v>
-      </c>
-      <c r="T9" t="s">
-        <v>1</v>
-      </c>
-      <c r="U9" t="s">
-        <v>1</v>
-      </c>
-      <c r="V9" t="s">
-        <v>1</v>
-      </c>
-      <c r="W9" t="s">
-        <v>1</v>
-      </c>
-      <c r="X9" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" t="str">
+        <f>IF(COUNTIF(C9:Q9,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
@@ -1025,62 +928,50 @@
       <c r="N10" t="s">
         <v>1</v>
       </c>
-      <c r="O10" t="s">
-        <v>1</v>
-      </c>
-      <c r="P10" t="s">
-        <v>1</v>
-      </c>
-      <c r="S10" t="s">
-        <v>1</v>
-      </c>
-      <c r="T10" t="s">
-        <v>1</v>
-      </c>
-      <c r="X10" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R10" t="str">
+        <f>IF(COUNTIF(C10:Q10,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T11" t="s">
-        <v>1</v>
-      </c>
-      <c r="X11" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N11" t="s">
+        <v>1</v>
+      </c>
+      <c r="R11" t="str">
+        <f>IF(COUNTIF(C11:Q11,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P12" t="s">
-        <v>1</v>
-      </c>
-      <c r="X12" t="str">
-        <f t="shared" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>1</v>
+      </c>
+      <c r="R12" t="str">
+        <f>IF(COUNTIF(C12:Q12,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -1091,457 +982,337 @@
       <c r="E15" t="s">
         <v>1</v>
       </c>
-      <c r="P15" t="s">
-        <v>1</v>
-      </c>
-      <c r="X15" t="str">
-        <f>IF(COUNTIF(C15:W15,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>1</v>
+      </c>
+      <c r="R15" t="str">
+        <f>IF(COUNTIF(C15:Q15,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="V16" t="s">
-        <v>1</v>
-      </c>
-      <c r="X16" t="str">
-        <f>IF(COUNTIF(C16:W16,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" t="str">
+        <f>IF(COUNTIF(C16:Q16,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="U17" t="s">
-        <v>1</v>
-      </c>
-      <c r="X17" t="str">
-        <f>IF(COUNTIF(C17:W17,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" t="str">
+        <f>IF(COUNTIF(C17:Q17,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W18" t="s">
-        <v>1</v>
-      </c>
-      <c r="X18" t="str">
-        <f>IF(COUNTIF(C18:W18,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="Q18" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" t="str">
+        <f>IF(COUNTIF(C18:Q18,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J19" t="s">
-        <v>1</v>
-      </c>
-      <c r="X19" t="str">
-        <f>IF(COUNTIF(C19:W19,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" t="str">
+        <f>IF(COUNTIF(C21:Q21,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J22" t="s">
-        <v>1</v>
-      </c>
-      <c r="T22" t="s">
-        <v>1</v>
-      </c>
-      <c r="X22" t="str">
-        <f t="shared" ref="X22:X27" si="1">IF(COUNTIF(C22:W22,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" t="str">
+        <f>IF(COUNTIF(C22:Q22,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
-        <v>1</v>
-      </c>
       <c r="E23" t="s">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
-        <v>1</v>
-      </c>
-      <c r="S23" t="s">
-        <v>1</v>
-      </c>
-      <c r="T23" t="s">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" t="str">
+        <f>IF(COUNTIF(C23:Q23,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>1</v>
-      </c>
-      <c r="S24" t="s">
-        <v>1</v>
-      </c>
-      <c r="X24" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" t="str">
+        <f>IF(COUNTIF(C24:Q24,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N25" t="s">
-        <v>1</v>
-      </c>
-      <c r="X25" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" t="str">
+        <f>IF(COUNTIF(C25:Q25,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1</v>
+      </c>
+      <c r="R28" t="str">
+        <f>IF(COUNTIF(C28:Q28,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1</v>
+      </c>
+      <c r="R29" t="str">
+        <f>IF(COUNTIF(C29:Q29,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="R26" t="s">
-        <v>1</v>
-      </c>
-      <c r="X26" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="S27" t="s">
-        <v>1</v>
-      </c>
-      <c r="X27" t="str">
-        <f t="shared" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="R30" t="str">
+        <f>IF(COUNTIF(C30:Q30,"X")=0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="str">
+        <f>IF(COUNTIFS(C3:C30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="D32" t="str">
+        <f>IF(COUNTIFS(D3:D30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="E32" t="str">
+        <f>IF(COUNTIFS(E3:E30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="F32" t="str">
+        <f>IF(COUNTIFS(F3:F30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="G32" t="str">
+        <f>IF(COUNTIFS(G3:G30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="H32" t="str">
+        <f>IF(COUNTIFS(H3:H30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="I32" t="str">
+        <f>IF(COUNTIFS(I3:I30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="J32" t="str">
+        <f>IF(COUNTIFS(J3:J30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="K32" t="str">
+        <f>IF(COUNTIFS(K3:K30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="L32" t="str">
+        <f>IF(COUNTIFS(L3:L30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="M32" t="str">
+        <f>IF(COUNTIFS(M3:M30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="N32" t="str">
+        <f>IF(COUNTIFS(N3:N30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>No</v>
+      </c>
+      <c r="O32" t="str">
+        <f>IF(COUNTIFS(O3:O30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="P32" t="str">
+        <f>IF(COUNTIFS(P3:P30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+      <c r="Q32" t="str">
+        <f>IF(COUNTIFS(Q3:Q30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="33" spans="3:17" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="C33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="3:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G34" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="O30" t="s">
-        <v>1</v>
-      </c>
-      <c r="T30" t="s">
-        <v>1</v>
-      </c>
-      <c r="X30" t="str">
-        <f>IF(COUNTIF(C30:W30,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="V31" t="s">
-        <v>1</v>
-      </c>
-      <c r="X31" t="str">
-        <f>IF(COUNTIF(C31:W31,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1</v>
-      </c>
-      <c r="X32" t="str">
-        <f>IF(COUNTIF(C32:W32,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L33" t="s">
-        <v>1</v>
-      </c>
-      <c r="S33" t="s">
-        <v>1</v>
-      </c>
-      <c r="X33" t="str">
-        <f>IF(COUNTIF(C33:W33,"X")=0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" t="str">
-        <f>IF(COUNTIFS(C3:C33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="D35" t="str">
-        <f>IF(COUNTIFS(D3:D33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="E35" t="str">
-        <f>IF(COUNTIFS(E3:E33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="F35" t="str">
-        <f>IF(COUNTIFS(F3:F33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="G35" t="str">
-        <f>IF(COUNTIFS(G3:G33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="H35" t="str">
-        <f>IF(COUNTIFS(H3:H33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="I35" t="str">
-        <f>IF(COUNTIFS(I3:I33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="J35" t="str">
-        <f>IF(COUNTIFS(J3:J33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="K35" t="str">
-        <f>IF(COUNTIFS(K3:K33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="L35" t="str">
-        <f>IF(COUNTIFS(L3:L33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="M35" t="str">
-        <f>IF(COUNTIFS(M3:M33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="N35" t="str">
-        <f>IF(COUNTIFS(N3:N33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="O35" t="str">
-        <f>IF(COUNTIFS(O3:O33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="P35" t="str">
-        <f>IF(COUNTIFS(P3:P33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="Q35" t="str">
-        <f>IF(COUNTIFS(Q3:Q33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="R35" t="str">
-        <f>IF(COUNTIFS(R3:R33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="S35" t="str">
-        <f>IF(COUNTIFS(S3:S33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="T35" t="str">
-        <f>IF(COUNTIFS(T3:T33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="U35" t="str">
-        <f>IF(COUNTIFS(U3:U33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-      <c r="V35" t="str">
-        <f>IF(COUNTIFS(V3:V33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>No</v>
-      </c>
-      <c r="W35" t="str">
-        <f>IF(COUNTIFS(W3:W33,"X",B3:B33,"No")&gt;0,"No","Yes")</f>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="O36" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="F37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="U37" s="2" t="s">
-        <v>60</v>
+      <c r="J34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A21">
+  <conditionalFormatting sqref="A20">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1556,7 +1327,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B19 B21:B30 B34 B32">
+  <conditionalFormatting sqref="B3:B18 B31 B20:B29">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>
@@ -1564,7 +1335,7 @@
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21:B30 B3:B19 B32">
+  <conditionalFormatting sqref="B20:B29 B3:B18">
     <cfRule type="iconSet" priority="26">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -1573,7 +1344,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:W35">
+  <conditionalFormatting sqref="C32:Q32">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E330B418-0DB1-4659-A99E-C5A1F9D3DFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58045926-C590-422F-82D3-9C8F2DC929EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-50" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
   <si>
     <t>FEATURES</t>
   </si>
@@ -632,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="R3" t="str">
-        <f>IF(COUNTIF(C3:Q3,"X")=0,"No","Yes")</f>
+        <f t="shared" ref="R3:R12" si="0">IF(COUNTIF(C3:Q3,"X")=0,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="str">
-        <f>IF(COUNTIF(C4:Q4,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -788,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="R5" t="str">
-        <f>IF(COUNTIF(C5:Q5,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="R6" t="str">
-        <f>IF(COUNTIF(C6:Q6,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="R7" t="str">
-        <f>IF(COUNTIF(C7:Q7,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -839,7 +839,7 @@
         <v>1</v>
       </c>
       <c r="R8" t="str">
-        <f>IF(COUNTIF(C8:Q8,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -884,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="str">
-        <f>IF(COUNTIF(C9:Q9,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="R10" t="str">
-        <f>IF(COUNTIF(C10:Q10,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -944,7 +944,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="str">
-        <f>IF(COUNTIF(C11:Q11,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="R12" t="str">
-        <f>IF(COUNTIF(C12:Q12,"X")=0,"No","Yes")</f>
+        <f t="shared" si="0"/>
         <v>Yes</v>
       </c>
     </row>
@@ -1076,9 +1076,6 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>1</v>
-      </c>
-      <c r="P22" t="s">
         <v>1</v>
       </c>
       <c r="R22" t="str">
@@ -1327,7 +1324,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B18 B31 B20:B29">
+  <conditionalFormatting sqref="B3:B18 B20:B29 B31">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
       <formula>"No"</formula>
     </cfRule>

--- a/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
+++ b/code/experimental/asmeta.evotest/asmeta.evotest.experiments/features_vs_specifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nico.pellegrinelli\Desktop\RepoLocaliGit\asmeta\code\experimental\asmeta.evotest\asmeta.evotest.experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58045926-C590-422F-82D3-9C8F2DC929EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E478939A-46DE-446B-9E7D-866A246319E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-50" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
   <si>
     <t>FEATURES</t>
   </si>
@@ -69,9 +69,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>with a big domain (like Integer with 2000)</t>
-  </si>
-  <si>
     <t>with structured domain like list, sequence, …</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>SiGistica.asm</t>
   </si>
   <si>
-    <t>with invariants (invariant INVAR .... qui con INVAR - ATGT potrebbe generare test che soddisfano gli inviarinti)</t>
-  </si>
-  <si>
     <t>with a condition like a password or a pin - integer or string - difficult to guess (no nusmv)</t>
   </si>
   <si>
@@ -144,39 +138,12 @@
     <t>SHOULD ATGT BE ABLE TO GENERATE TESTS?</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>use keyword</t>
-  </si>
-  <si>
-    <t>operator next not supported in NUSMV - to flatten??</t>
-  </si>
-  <si>
-    <t>$a already created with type UffLog</t>
-  </si>
-  <si>
-    <t>fixed</t>
-  </si>
-  <si>
     <t>Tcas.asm</t>
   </si>
   <si>
     <t>with boolean complex conditions</t>
   </si>
   <si>
-    <t>var currentLock has no bool value but1</t>
-  </si>
-  <si>
-    <t>renamed derived</t>
-  </si>
-  <si>
-    <t>not fixable</t>
-  </si>
-  <si>
-    <t>changed kword</t>
-  </si>
-  <si>
     <t>GuessBigNumber.asm</t>
   </si>
   <si>
@@ -208,6 +175,15 @@
   </si>
   <si>
     <t>LadingGearSystem.asm</t>
+  </si>
+  <si>
+    <t>with a big domain (greater than 2000)</t>
+  </si>
+  <si>
+    <t>with input invariants (INVAR .... ATGT may generate tests that satisfies the invariants)</t>
+  </si>
+  <si>
+    <t>Error: $a already created with type UffLog</t>
   </si>
 </sst>
 </file>
@@ -250,7 +226,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,14 +255,14 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -632,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,56 +632,56 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -778,8 +754,8 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
+      <c r="A5" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -794,7 +770,7 @@
     </row>
     <row r="6" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
@@ -815,7 +791,7 @@
     </row>
     <row r="7" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
@@ -830,7 +806,7 @@
     </row>
     <row r="8" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -950,7 +926,7 @@
     </row>
     <row r="12" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
@@ -965,13 +941,13 @@
     </row>
     <row r="13" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
+      <c r="A14" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>10</v>
@@ -992,7 +968,7 @@
     </row>
     <row r="16" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -1007,7 +983,7 @@
     </row>
     <row r="17" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>9</v>
@@ -1021,11 +997,11 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>42</v>
+      <c r="A18" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="s">
         <v>1</v>
@@ -1037,16 +1013,16 @@
     </row>
     <row r="19" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>19</v>
+      <c r="A20" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="N21" t="s">
         <v>1</v>
@@ -1058,10 +1034,10 @@
     </row>
     <row r="22" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -1085,10 +1061,10 @@
     </row>
     <row r="23" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" t="s">
         <v>1</v>
@@ -1100,10 +1076,10 @@
     </row>
     <row r="24" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L24" t="s">
         <v>1</v>
@@ -1115,10 +1091,10 @@
     </row>
     <row r="25" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" t="s">
         <v>1</v>
@@ -1130,13 +1106,13 @@
     </row>
     <row r="26" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
-        <v>24</v>
+      <c r="A27" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>10</v>
@@ -1151,7 +1127,7 @@
     </row>
     <row r="29" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>9</v>
@@ -1166,10 +1142,10 @@
     </row>
     <row r="30" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
         <v>1</v>
@@ -1180,8 +1156,8 @@
       </c>
     </row>
     <row r="32" spans="1:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>35</v>
+      <c r="A32" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C32" t="str">
         <f>IF(COUNTIFS(C3:C30,"X",B3:B30,"No")&gt;0,"No","Yes")</f>
@@ -1244,70 +1220,12 @@
         <v>Yes</v>
       </c>
     </row>
-    <row r="33" spans="3:17" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>36</v>
-      </c>
+    <row r="33" spans="12:12" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="L33" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="3:17" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="F34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O34" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="12:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="A20">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
